--- a/Documentazione Gruppo2/Test suites Desperate Colleagues Gruppo2.xlsx
+++ b/Documentazione Gruppo2/Test suites Desperate Colleagues Gruppo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\Progetti\CasoStudioITSS\Documentazione Gruppo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEF99F0-C7EA-45DD-A243-5E2948471014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E27C27-2F9E-402E-8578-B433F668C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{4BBF96BD-0235-45CB-9E58-5FDC17119F00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BBF96BD-0235-45CB-9E58-5FDC17119F00}"/>
   </bookViews>
   <sheets>
     <sheet name="Descrizione template" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="223">
   <si>
     <t>Project Name:</t>
   </si>
@@ -231,14 +231,6 @@
 2. Accertarsi che vengano visualizzati solo gli studenti che si sono iscritti quel giorno</t>
   </si>
   <si>
-    <t>1. Inserire due date non nulle con inclusive true con almeno 1 studente iscritto che rientri nel range
-2. Accertarsi che l'output sia un insieme pieno</t>
-  </si>
-  <si>
-    <t>1. Inserire due date non nulle con inclusive true con nessuno studente che rientri nel range
-2. Accertarsi che l'output sia un insieme vuoto</t>
-  </si>
-  <si>
     <t>Lancio eccezione</t>
   </si>
   <si>
@@ -264,14 +256,6 @@
   </si>
   <si>
     <t>studentsInRange</t>
-  </si>
-  <si>
-    <t>1. Inserire due valori di range validi, con uno studente che abbia preso un voto esattamente uguale al limite inferiore
-2. Accertarsi che l'output sia uguale a 1</t>
-  </si>
-  <si>
-    <t>1. Inserire due valori di range validi, con uno studente che abbia preso un voto esattamente uguale al limite superiore
-2. Accertarsi che l'output sia uguale a 1</t>
   </si>
   <si>
     <t>Inserire from maggiore di to e accertarsi che venga lanciata l'eccezione</t>
@@ -339,10 +323,6 @@
 2. Accertarsi che l'output contenga solo lo studente a cui è stato assegnato il voto</t>
   </si>
   <si>
-    <t>1. Inserire più voti validi, ma con un solo studente che prende il voto più alto
-2. Accertarsi che l'output contenga esattamente il solo studente, con il voto più alto</t>
-  </si>
-  <si>
     <t>moreStudentWithAssignedMarkWithOneHighestMark</t>
   </si>
   <si>
@@ -881,26 +861,10 @@
     </r>
   </si>
   <si>
-    <t>1. Inserire due date non nulle con inclusive false con nessuno studente che rientri nel range
-2. Accertarsi che l'output sia insieme vuoto, e contenga lo studente iscritto nella data che rientra nel range</t>
-  </si>
-  <si>
-    <t>1. Inserire due date non nulle con inclusive false con almeno 1 studente iscritto che rientri nel range
-2. Accertarsi che l'output sia un insieme pieno, con almeno uno studente iscritto nella data che rientra nel range</t>
-  </si>
-  <si>
     <t>Il gestore del corso deve essere istanziato e il corso deve contenere almeno uno studente iscritto</t>
   </si>
   <si>
     <t>Eliminare studenti iscritti e accertarsi che venga lanciata l'eccezione</t>
-  </si>
-  <si>
-    <t>1. Inserire due valori di range validi con nessuno studente che abbia voti che rientrano nel range.
-2. Accertarsi che l'output sia uguale a 0</t>
-  </si>
-  <si>
-    <t>1. Inserire due valori di range validi con almeno 1 studente che abbia voto che rientri nel range.
-2. Accertarsi che l'output sia un valore &gt; 0</t>
   </si>
   <si>
     <t>Descrizione template - corpo</t>
@@ -1435,11 +1399,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">La descrizione degli </t>
-    </r>
-    <r>
-      <rPr>
+    <t>Scelta del template</t>
+  </si>
+  <si>
+    <t>Module Name: CourseManager</t>
+  </si>
+  <si>
+    <t>Release Version: 1</t>
+  </si>
+  <si>
+    <t>Project Name: CasoStudioITSS</t>
+  </si>
+  <si>
+    <r>
+      <t>Il template scelto è un'</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1447,7 +1424,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>step del test</t>
+      <t>unione</t>
     </r>
     <r>
       <rPr>
@@ -1457,30 +1434,335 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> esula l'implementazione. Nel template è stato descritto in maniera discorsiva cosa serve per l'implementazione del test. Nello specifico caso del lavoro svolto dal Gruppo 2 dei Desperate Colleagues, ad esempio, l'inserimento degli studenti nel corso è stato effettuato nei metodi del ciclo di vita JUnit, al fine di favorire il riuso dello stesso insieme di oggetti. Quando alcuni casi di test asseriscono di "ipotizzare di aver inserito unoo studente nel corso...". Lo step è volutamente scritto in questa maniera in quanto si decide di lasciare libera interpretazione all'implementatore, sul dove istanziare questi oggetti in base al linguaggio di sviluppo.</t>
-    </r>
-  </si>
-  <si>
-    <t>Scelta del template</t>
-  </si>
-  <si>
-    <t>Il template scelto è una unione dei template standard descritti al seguente link: https://www.softwaretestinghelp.com/test-case-template-examples/. Le post condizioni sono state rimosse, come nel secondo template mostrato, in quanto nello specifico caso di lavoro, nessun caso di test modifica lo stato del sistema. Nel nostro caso infatti le PC corrispondono con gli expected result.</t>
-  </si>
-  <si>
-    <t>Module Name: CourseManager</t>
-  </si>
-  <si>
-    <t>Release Version: 1</t>
-  </si>
-  <si>
-    <t>Project Name: CasoStudioITSS</t>
+      <t xml:space="preserve"> dei template standard descritti al seguente link: https://www.softwaretestinghelp.com/test-case-template-examples/. Contiene i campi classici presenti nel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format #1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, ma presenta una struttura più compatta come nel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>format #2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Le post condizioni sono state rimosse (si veda il format #2), in quanto, in questo specifico caso di studo, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nessun caso di test modifica lo stato del sistema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Nel caso in esame infatti le PC corrispondono con gli expected result.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Inserire più voti validi, ma con un solo studente a cui è assegnato il voto più alto
+2. Accertarsi che l'output contenga esattamente il solo studente, con il voto più alto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due date </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con inclusive false con almeno 1 studente iscritto che rientri nel range
+2. Accertarsi che l'output sia un insieme pieno, con almeno uno studente iscritto nella data che rientra nel range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due date </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con inclusive false con nessuno studente che rientri nel range
+2. Accertarsi che l'output sia insieme vuoto, e contenga lo studente iscritto nella data che rientra nel range</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due date </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con inclusive true con almeno 1 studente iscritto che rientri nel range
+2. Accertarsi che l'output sia un insieme pieno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due date </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con inclusive true con nessuno studente che rientri nel range
+2. Accertarsi che l'output sia un insieme vuoto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due valori di range (from e to) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con almeno 1 studente che abbia voto che rientri nel range.
+2. Accertarsi che l'output sia un valore &gt; 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due valori di range (from e to)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> con nessuno studente che abbia voti che rientrano nel range.
+2. Accertarsi che l'output sia uguale a 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due valori di range (from e to) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, con uno studente che abbia preso un voto esattamente uguale al limite inferiore
+2. Accertarsi che l'output sia uguale a 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Inserire due valori di range (from e to) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, con uno studente che abbia preso un voto esattamente uguale al limite superiore
+2. Accertarsi che l'output sia uguale a 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inserire due date valide significa che fromDate &lt; toDate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nota:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inserire due valori di range validi significa che from &lt; to</t>
+    </r>
+  </si>
+  <si>
+    <t>La descrizione degli step del test è stata effettuata in maniera discorsiva. Alcuni casi di test asseriscono di inserire oggetti nel corso rispettando determinate condizioni, generalmente questo tipo di step inizia con il termine "Ipotizzando...". Lo step è volutamente scritto in maniera tale da lasciare libertà di decisione all'implementatore del test sul dove istanziare questi oggetti (se nel test case o all'interno di metodi che gestiscono cicli di vita della suite), senza doversi per forza basarsi su un framework di testing o linguaggio. In riferimento al lavoro svolto dal Gruppo 2 del team Desperate Colleagues, ad esempio, l'inserimento degli studenti nel corso è stato effettuato nei metodi del ciclo di vita JUnit, al fine di favorire il riuso dello stesso insieme di oggetti. Al contrario l'inserimento di parametri quali voti è stato effettuato nello specifico caso di test in quanto strettamente dipendenti da esso.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,6 +1968,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1707,7 +2043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1845,11 +2181,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1961,176 +2377,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2145,33 +2396,224 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2488,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F103176D-D41C-4E75-9F3B-A1D75AEC5575}">
-  <dimension ref="B2:I42"/>
+  <dimension ref="B2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:I42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2507,32 +2949,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="44"/>
+      <c r="B2" s="56"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="5"/>
@@ -2542,11 +2984,11 @@
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
@@ -2554,57 +2996,57 @@
       <c r="D5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
     </row>
     <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="32" t="s">
@@ -2643,324 +3085,336 @@
       <c r="I11" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B13" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="B13" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="B14" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B17" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B28" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="B28" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
+      <c r="B29" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
     </row>
     <row r="38" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B38" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="B38" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+      <c r="B39" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B39:I42"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B39:I43"/>
+    <mergeCell ref="B18:I27"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="E2:I2"/>
@@ -2975,8 +3429,6 @@
     <mergeCell ref="B38:I38"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I37"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2985,10 +3437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD33309-0B05-495A-8098-DE5B9212EEDC}">
-  <dimension ref="B1:I56"/>
+  <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="B24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3005,112 +3457,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="96" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
     </row>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="97"/>
-      <c r="C3" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="96" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="34"/>
-      <c r="C4" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="96" t="s">
+      <c r="C4" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="C6" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
@@ -3123,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>14</v>
@@ -3149,19 +3601,19 @@
         <v>28</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -3175,19 +3627,19 @@
         <v>28</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -3201,19 +3653,19 @@
         <v>40</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -3227,164 +3679,164 @@
         <v>40</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="G16" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="65" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
@@ -3397,563 +3849,560 @@
         <v>35</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>156</v>
+      <c r="E23" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="65" t="s">
+      <c r="E25" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+    </row>
+    <row r="27" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="E27" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+    </row>
+    <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="65" t="s">
+      <c r="G30" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-    </row>
-    <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>124</v>
+      <c r="H30" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="78" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
     </row>
     <row r="33" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>123</v>
+      <c r="D33" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="78" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="66" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="65" t="s">
-        <v>125</v>
+      <c r="D36" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="78" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="66" t="s">
+      <c r="E40" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F40" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>156</v>
+      <c r="G40" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
     </row>
     <row r="43" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="66" t="s">
+      <c r="E43" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F43" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>156</v>
+      <c r="G43" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I43" s="78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-    </row>
-    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B47" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="97"/>
-      <c r="C48" s="98" t="s">
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="95" t="s">
+      <c r="C47" s="123"/>
+    </row>
+    <row r="49" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B49" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="80"/>
+      <c r="C50" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="97"/>
-      <c r="C49" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-    </row>
-    <row r="50" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D50" s="96" t="s">
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="80"/>
+      <c r="C51" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="34"/>
+      <c r="C52" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-    </row>
-    <row r="51" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-    </row>
-    <row r="52" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="104" t="s">
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="47"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="88"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="105" t="s">
+      <c r="C54" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="38" t="s">
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C55" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="38" t="s">
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C56" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="21" t="s">
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="82"/>
+      <c r="I56" s="82"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C57" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D57" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="21" t="s">
+      <c r="E57" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G57" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="21" t="s">
+      <c r="H57" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="114"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="B56:I56"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:I48"/>
-    <mergeCell ref="D49:I49"/>
+  <mergeCells count="116">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="D50:I50"/>
     <mergeCell ref="D51:I51"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="D53:I53"/>
     <mergeCell ref="C54:I54"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C56:I56"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="D33:D35"/>
@@ -4068,17 +4517,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4CDD09-8C45-47FE-BC1F-089B14C78F8A}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
-    <col min="4" max="4" width="94.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="4" max="4" width="104" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" customWidth="1"/>
@@ -4087,103 +4536,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
+      <c r="B2" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="95" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="97"/>
-      <c r="C4" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="95" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="34"/>
-      <c r="C5" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="96" t="s">
+      <c r="C5" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="102"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="49" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
@@ -4196,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>14</v>
@@ -4216,25 +4674,25 @@
         <v>18</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -4242,25 +4700,25 @@
         <v>19</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -4268,25 +4726,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -4294,231 +4752,231 @@
         <v>22</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="71" t="s">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="E23" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="70"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="65" t="s">
-        <v>156</v>
+      <c r="I23" s="78" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="2:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -4526,25 +4984,25 @@
         <v>38</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -4552,205 +5010,195 @@
         <v>41</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-    </row>
-    <row r="30" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="97"/>
-      <c r="C31" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="B29" s="123" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="123"/>
+    </row>
+    <row r="30" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B31" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="80"/>
+      <c r="C32" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="97"/>
-      <c r="C32" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="34"/>
-      <c r="C33" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D33" s="96" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="34"/>
+      <c r="C34" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
     </row>
     <row r="35" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
+      <c r="C36" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C38" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="E39" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G39" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="H39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="112" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="114"/>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B39:I39"/>
+  <mergeCells count="60">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:I32"/>
     <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
@@ -4783,7 +5231,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="C35:I35"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="I15:I16"/>
@@ -4791,6 +5238,7 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
@@ -4809,8 +5257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7198D1D-66C2-454F-9C4C-35368AB3DB3A}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4825,112 +5273,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B1" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="101"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="97"/>
-      <c r="C3" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="99" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="34"/>
-      <c r="C4" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="99" t="s">
+      <c r="C4" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="102"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
+      <c r="C6" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
@@ -4943,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>14</v>
@@ -4959,302 +5407,292 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="2:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D16" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+    </row>
+    <row r="18" spans="2:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="68" t="s">
+      <c r="D18" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+    </row>
+    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="B21" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="80"/>
+      <c r="C22" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="80"/>
+      <c r="C23" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-    </row>
-    <row r="16" spans="2:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="2:9" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
-    </row>
-    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="B21" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="97"/>
-      <c r="C22" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="97"/>
-      <c r="C23" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="34"/>
-      <c r="C24" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="96" t="s">
+      <c r="C24" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
     </row>
     <row r="25" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="102"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="21" t="s">
@@ -5267,7 +5705,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>14</v>
@@ -5283,40 +5721,40 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="65" t="s">
-        <v>154</v>
+      <c r="C30" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="78" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -5391,7 +5829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD74323-CB92-471D-8E25-80852F8CC424}">
   <dimension ref="C2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -5408,112 +5846,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="C2" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="C2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C3" s="97"/>
-      <c r="D3" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="95" t="s">
+      <c r="C3" s="80"/>
+      <c r="D3" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C4" s="97"/>
-      <c r="D4" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="34"/>
-      <c r="D5" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="96" t="s">
+      <c r="D5" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
+      <c r="D7" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
@@ -5526,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>14</v>
@@ -5542,112 +5980,112 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E13" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="65" t="s">
+      <c r="E15" s="97" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>118</v>
+      <c r="F15" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="78" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="25"/>
@@ -5659,120 +6097,110 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-    </row>
     <row r="19" spans="3:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="C19" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="C19" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="84"/>
-      <c r="D20" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" s="107" t="s">
+      <c r="C20" s="100"/>
+      <c r="D20" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C21" s="97"/>
-      <c r="D21" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22" s="34"/>
-      <c r="D22" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="96" t="s">
+      <c r="D22" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="3:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
+      <c r="D24" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
@@ -5788,134 +6216,107 @@
         <v>12</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
+      <c r="D28" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="98"/>
     </row>
     <row r="30" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="67" t="s">
+      <c r="D30" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="98"/>
     </row>
     <row r="32" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="98"/>
+    </row>
+    <row r="34" spans="3:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="E32" s="77" t="s">
+      <c r="F34" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-    </row>
-    <row r="34" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -6008,122 +6409,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="83"/>
-      <c r="C2" s="93" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="105"/>
+      <c r="C2" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
     </row>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="84"/>
-      <c r="C3" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="34"/>
-      <c r="C4" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="80" t="s">
+      <c r="C4" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
+      <c r="D5" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="37"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="C7" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
@@ -6152,192 +6553,192 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="65" t="s">
+      <c r="B11" s="77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+    </row>
+    <row r="15" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="G15" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+    </row>
+    <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-    </row>
-    <row r="15" spans="2:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="65" t="s">
+      <c r="E19" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="G15" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="65" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
